--- a/TestData/LV_T1592_ValidationsToBeCompleted.xlsx
+++ b/TestData/LV_T1592_ValidationsToBeCompleted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834BF522-4D3F-40EF-BCE6-3153CC939D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C117572-909B-4787-948F-62A07C72CFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -299,9 +299,6 @@
     <t>Tabs</t>
   </si>
   <si>
-    <t>Debt Capital Markets</t>
-  </si>
-  <si>
     <t>OPPORTUNITY OVERVIEW, OVERVIEW AND FINANCIALS, FEES, ADMINISTRATIVE</t>
   </si>
   <si>
@@ -365,7 +362,10 @@
     <t>BUS - Business Services</t>
   </si>
   <si>
-    <t>Items to complete:Info--&gt;Details--&gt;General: Client Ownership is required.Info--&gt;Details--&gt;General: Subject's Ownership is required.Info--&gt;Details--&gt;Opportunity Description: Opportunity Description is required.Fees &amp; Financials--&gt;Funds &amp; Financials: Est. Transaction Size / Market Cap (MM) is required.Fees &amp; Financials--&gt;Estimated Fees: Retainer is required. (Input zero if there's no Retainer fee.)Fees &amp; Financials--&gt;Estimated Fees: Shared Services Expense is required.Fees &amp; Financials--&gt;Estimated Fees: Expense Cap is required.Fees &amp; Financials--&gt;Estimated Fees: Legal Cap is required.Fees &amp; Financials--&gt;Estimated Fees: Progress/Monthly Fee is required.Fees &amp; Financials--&gt;Estimated Fees: Contingent Fee is required.Compliance &amp; Legal--&gt;Legal Matters: Indemnification Language is required.Client/Subject &amp; Referral--&gt;Referral Info: Referral Contact is required.Internal Team: Team must include the following roles: Initiator, Seller, Principal, Manager, Associate(Optional), Analyst(Optional).Compliance &amp; Legal--&gt;Legal Matters: Confidentiality Agreement is required.Compliance &amp; Legal--&gt;Conflicts Check: A Conflicts Check was completed more than 30 days ago. A new Conflicts Check must be completed.Info--&gt;Administration: Estimated Close Date is required.Info--&gt;Administration: "Women Led" is required. Please update this field with the correct valueInfo--&gt;Administration: Fairness Opinion Component is required.Info--&gt;Administration: Date Engaged - Date of Executed Retainer or similar document.Approved NBC form - Please complete and submit this form via the NBC button.Opportunity Contacts - Add at least one Primary Opportunity Contact.Opportunity Contacts - Add at least one Billing Contact.</t>
+    <t>Debt Financing</t>
+  </si>
+  <si>
+    <t>Items to complete:Info--&gt;Details--&gt;General: Client Ownership is required.Info--&gt;Details--&gt;General: Subject's Ownership is required.Info--&gt;Details--&gt;Opportunity Description: Opportunity Description is required.Fees &amp; Financials--&gt;Funds &amp; Financials: Est. Transaction Size / Market Cap (MM) is required.Fees &amp; Financials--&gt;Estimated Fees: Retainer is required. (Input zero if there's no Retainer fee.)Fees &amp; Financials--&gt;Estimated Fees: Shared Services Expense is required.Fees &amp; Financials--&gt;Estimated Fees: Expense Cap is required.Fees &amp; Financials--&gt;Estimated Fees: Legal Cap is required.Fees &amp; Financials--&gt;Estimated Fees: Progress/Monthly Fee is required.Fees &amp; Financials--&gt;Estimated Fees: Contingent Fee is required.Compliance &amp; Legal--&gt;Legal Matters: Indemnification Language is required.KYC/Client/Subject/Referral--&gt;Referral Info: Referral Contact is required.Internal Team: Team must include the following roles: Initiator, Seller, Principal, Manager, Associate(Optional), Analyst(Optional).Compliance &amp; Legal--&gt;Legal Matters: Confidentiality Agreement is required.Compliance &amp; Legal--&gt;Conflicts Check: A Conflicts Check was completed more than 30 days ago. A new Conflicts Check must be completed.Info--&gt;Administration: Location where Benefit is to be Provided is required.Info--&gt;Administration: Estimated Close Date is required.Info--&gt;Administration: "Women Led" is required. Please update this field with the correct valueInfo--&gt;Administration: Fairness Opinion Component is required.Info--&gt;Administration: Date Engaged - Date of Executed Retainer or similar document.Approved NBC form - Please complete and submit this form via the NBC button.Opportunity Contacts - Add at least one Primary Opportunity Contact.Opportunity Contacts - Add at least one Billing Contact.</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -766,12 +766,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -791,12 +791,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +809,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,19 +924,19 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -963,16 +963,16 @@
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R2" t="s">
         <v>26</v>
@@ -981,13 +981,13 @@
         <v>26</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U2" t="s">
         <v>29</v>
       </c>
       <c r="V2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W2" t="s">
         <v>32</v>
@@ -1002,10 +1002,10 @@
         <v>42</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1061,18 +1061,18 @@
         <v>53</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>38</v>
@@ -1096,16 +1096,16 @@
         <v>54</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="254.45" customHeight="1" x14ac:dyDescent="0.25">
